--- a/soil_cores/Codes_July2017_Jena.xlsx
+++ b/soil_cores/Codes_July2017_Jena.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="208">
   <si>
     <t>NOTES</t>
   </si>
@@ -645,6 +645,12 @@
   </si>
   <si>
     <t>T106R2</t>
+  </si>
+  <si>
+    <t>Total number of samples to analyse:</t>
+  </si>
+  <si>
+    <t>Sample to be analysed (soil layers, roots, KCl extractions):</t>
   </si>
 </sst>
 </file>
@@ -652,9 +658,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,8 +668,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -676,8 +705,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -685,11 +726,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -697,10 +775,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -710,9 +788,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -993,15 +1097,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1022,7 +1127,7 @@
       <c r="B2" s="4">
         <v>3.0659999999999998</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1033,7 +1138,7 @@
       <c r="B3" s="4">
         <v>4.5259999999999998</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1044,7 +1149,7 @@
       <c r="B4" s="4">
         <v>4.53</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1055,7 +1160,7 @@
       <c r="B5" s="4">
         <v>4.43</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1066,7 +1171,7 @@
       <c r="B6" s="4">
         <v>6.1779999999999999</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1077,7 +1182,7 @@
       <c r="B7" s="4">
         <v>4.0469999999999997</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1088,7 +1193,7 @@
       <c r="B8" s="4">
         <v>10.919</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1099,7 +1204,7 @@
       <c r="B9" s="4">
         <v>34.71</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1110,7 +1215,7 @@
       <c r="B10" s="4">
         <v>36.36</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1121,7 +1226,7 @@
       <c r="B11" s="4">
         <v>10.6</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1132,7 +1237,7 @@
       <c r="B12" s="4">
         <v>34.124000000000002</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1143,7 +1248,7 @@
       <c r="B13" s="4">
         <v>14.326000000000001</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1154,7 +1259,7 @@
       <c r="B14" s="4">
         <v>33.956000000000003</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1165,7 +1270,7 @@
       <c r="B15" s="4">
         <v>34.131999999999998</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1173,8 +1278,10 @@
       <c r="A16" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="15">
+        <v>30</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1185,7 +1292,7 @@
       <c r="B17" s="4">
         <v>28.24</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1196,7 +1303,7 @@
       <c r="B18" s="4">
         <v>40.018999999999998</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1207,7 +1314,7 @@
       <c r="B19" s="4">
         <v>37.881</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1218,7 +1325,7 @@
       <c r="B20" s="4">
         <v>6.0030000000000001</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1229,7 +1336,7 @@
       <c r="B21" s="4">
         <v>5.49</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1240,7 +1347,7 @@
       <c r="B22" s="4">
         <v>6.1470000000000002</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1251,7 +1358,7 @@
       <c r="B23" s="4">
         <v>4.6609999999999996</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1262,7 +1369,7 @@
       <c r="B24" s="4">
         <v>3.395</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="11" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1273,7 +1380,7 @@
       <c r="B25" s="4">
         <v>4.2359999999999998</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1284,7 +1391,7 @@
       <c r="B26" s="4">
         <v>33.067999999999998</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1295,7 +1402,7 @@
       <c r="B27" s="4">
         <v>43.832999999999998</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1306,7 +1413,7 @@
       <c r="B28" s="4">
         <v>43.914000000000001</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="11" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1317,7 +1424,7 @@
       <c r="B29" s="4">
         <v>30.879000000000001</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1328,7 +1435,7 @@
       <c r="B30" s="4">
         <v>30.128</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1339,7 +1446,7 @@
       <c r="B31" s="4">
         <v>33.673000000000002</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1350,7 +1457,7 @@
       <c r="B32" s="4">
         <v>34.229999999999997</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="11" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1361,7 +1468,7 @@
       <c r="B33" s="4">
         <v>33.478000000000002</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="11" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1372,7 +1479,7 @@
       <c r="B34" s="4">
         <v>31.495999999999999</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="11" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1383,7 +1490,7 @@
       <c r="B35" s="4">
         <v>36.457000000000001</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1394,7 +1501,7 @@
       <c r="B36" s="4">
         <v>34.831000000000003</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="11" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1405,7 +1512,7 @@
       <c r="B37" s="4">
         <v>3.5550000000000002</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="9" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1416,7 +1523,7 @@
       <c r="B38" s="4">
         <v>5.266</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1427,7 +1534,7 @@
       <c r="B39" s="4">
         <v>3.7610000000000001</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1438,7 +1545,7 @@
       <c r="B40" s="4">
         <v>3.8769999999999998</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="9" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1449,7 +1556,7 @@
       <c r="B41" s="4">
         <v>4.5010000000000003</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="9" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1460,7 +1567,7 @@
       <c r="B42" s="4">
         <v>4.5220000000000002</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1471,7 +1578,7 @@
       <c r="B43" s="4">
         <v>30.495999999999999</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="9" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1482,7 +1589,7 @@
       <c r="B44" s="4">
         <v>44.478000000000002</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="9" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1493,7 +1600,7 @@
       <c r="B45" s="4">
         <v>20.495999999999999</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1504,7 +1611,7 @@
       <c r="B46" s="4">
         <v>48.192</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1515,7 +1622,7 @@
       <c r="B47" s="4">
         <v>44.05</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1526,7 +1633,7 @@
       <c r="B48" s="4">
         <v>38.588999999999999</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1537,7 +1644,7 @@
       <c r="B49" s="4">
         <v>43.363</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1548,7 +1655,7 @@
       <c r="B50" s="4">
         <v>46.573999999999998</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1559,7 +1666,7 @@
       <c r="B51" s="4">
         <v>44.634999999999998</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="9" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1570,7 +1677,7 @@
       <c r="B52" s="4">
         <v>42.563000000000002</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1581,7 +1688,7 @@
       <c r="B53" s="4">
         <v>45.341000000000001</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1592,7 +1699,7 @@
       <c r="B54" s="4">
         <v>3.8450000000000002</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="10" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1603,7 +1710,7 @@
       <c r="B55" s="4">
         <v>5.0880000000000001</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="10" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1614,7 +1721,7 @@
       <c r="B56" s="4">
         <v>5.2119999999999997</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="10" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1625,7 +1732,7 @@
       <c r="B57" s="4">
         <v>3.9780000000000002</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="10" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1636,7 +1743,7 @@
       <c r="B58" s="4">
         <v>4.9329999999999998</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1647,7 +1754,7 @@
       <c r="B59" s="4">
         <v>44.356000000000002</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="10" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1658,7 +1765,7 @@
       <c r="B60" s="4">
         <v>41.54</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="10" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1669,7 +1776,7 @@
       <c r="B61" s="4">
         <v>30.741</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="10" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1680,7 +1787,7 @@
       <c r="B62" s="4">
         <v>34.896000000000001</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1691,7 +1798,7 @@
       <c r="B63" s="4">
         <v>40.412999999999997</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="10" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1702,52 +1809,61 @@
       <c r="B64" s="4">
         <v>42.822000000000003</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B65" s="4">
         <v>33.537999999999997</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B66" s="4">
         <v>39.857999999999997</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B67" s="4">
         <v>38.78</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B68" s="4">
         <v>43.527999999999999</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="10" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D69" s="16">
+        <f>COUNT(B2:B68)</f>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1757,10 +1873,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:C20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2117,7 +2233,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>197</v>
       </c>
@@ -2128,7 +2244,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>198</v>
       </c>
@@ -2139,7 +2255,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>199</v>
       </c>
@@ -2150,7 +2266,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>200</v>
       </c>
@@ -2161,7 +2277,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>201</v>
       </c>
@@ -2172,7 +2288,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>202</v>
       </c>
@@ -2183,7 +2299,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>203</v>
       </c>
@@ -2194,7 +2310,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>204</v>
       </c>
@@ -2205,7 +2321,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>205</v>
       </c>
@@ -2214,6 +2330,12 @@
       </c>
       <c r="C41" s="1" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="16">
+        <f>COUNT(B32:B41,B21:B29,B2:B19)</f>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2223,10 +2345,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:C22"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2257,10 +2379,10 @@
       <c r="A3" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="13">
         <v>31</v>
       </c>
     </row>
@@ -2268,10 +2390,10 @@
       <c r="A4" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="12">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="13">
         <v>32</v>
       </c>
     </row>
@@ -2279,10 +2401,10 @@
       <c r="A5" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="12">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="13">
         <v>33</v>
       </c>
     </row>
@@ -2290,10 +2412,10 @@
       <c r="A6" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="12">
         <v>4</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="13">
         <v>34</v>
       </c>
     </row>
@@ -2301,21 +2423,21 @@
       <c r="A7" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="12">
         <v>5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="13">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="12">
         <v>6</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="13">
         <v>36</v>
       </c>
     </row>
@@ -2342,35 +2464,35 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="12">
         <v>9</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="13">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="12">
         <v>10</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="13">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="12">
         <v>11</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="13">
         <v>41</v>
       </c>
     </row>
@@ -2408,57 +2530,57 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="12">
         <v>15</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="13">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="12">
         <v>16</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="13">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="12">
         <v>17</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="13">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="12">
         <v>18</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="13">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="12">
         <v>19</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="13">
         <v>49</v>
       </c>
     </row>
@@ -2518,46 +2640,46 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="12">
         <v>25</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="13">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="12">
         <v>26</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="13">
         <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="12">
         <v>27</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="13">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="12">
         <v>28</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="13">
         <v>58</v>
       </c>
     </row>
@@ -2581,6 +2703,29 @@
       </c>
       <c r="C32" s="2">
         <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E33" s="16">
+        <f>COUNT(B3:C8,B11:C14,B17:C21,B27:C30)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="20">
+        <f>SUM(mineral_organic_layers!D69,roots!E42,NH4_diffusion_KCl_extraction!E33)</f>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/soil_cores/Codes_July2017_Jena.xlsx
+++ b/soil_cores/Codes_July2017_Jena.xlsx
@@ -660,7 +660,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -687,6 +687,14 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -767,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -817,6 +825,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2345,10 +2356,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2390,7 +2401,7 @@
       <c r="A4" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="21">
         <v>2</v>
       </c>
       <c r="C4" s="13">
@@ -2423,7 +2434,7 @@
       <c r="A7" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="21">
         <v>5</v>
       </c>
       <c r="C7" s="13">
@@ -2434,7 +2445,7 @@
       <c r="A8" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="21">
         <v>6</v>
       </c>
       <c r="C8" s="13">
@@ -2577,7 +2588,7 @@
       <c r="A21" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="21">
         <v>19</v>
       </c>
       <c r="C21" s="13">
@@ -2665,7 +2676,7 @@
       <c r="A29" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="21">
         <v>27</v>
       </c>
       <c r="C29" s="13">
@@ -2676,7 +2687,7 @@
       <c r="A30" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="21">
         <v>28</v>
       </c>
       <c r="C30" s="13">
@@ -2728,8 +2739,41 @@
         <v>142</v>
       </c>
     </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f>0.0046*1000</f>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f>AVERAGE(A36:A40)</f>
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
